--- a/FileGunBasin/9 August-04 StormBasin/210 sddx - pantheon table tenants - 1/210 sddx - pantheon table tenants - 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/210 sddx - pantheon table tenants - 1/210 sddx - pantheon table tenants - 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/210 sddx - pantheon table tenants - 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E207EB7-970E-224C-8C42-5B67F10275AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B448E5B-EC7F-914F-A52E-406F4BA5FEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{800A12F4-B84A-EC41-88CA-9666E3C00132}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>description</t>
   </si>
@@ -48,6 +48,15 @@
   </si>
   <si>
     <t>id_code_of_</t>
+  </si>
+  <si>
+    <t>open chen page</t>
+  </si>
+  <si>
+    <t>open /sitejar4?PARAMETER</t>
+  </si>
+  <si>
+    <t>open /driggsman?PARAMETER</t>
   </si>
 </sst>
 </file>
@@ -440,17 +449,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70827F30-29D4-3049-AB31-D2A38108864F}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" customWidth="1"/>
     <col min="4" max="4" width="29.83203125" customWidth="1"/>
     <col min="5" max="5" width="46.83203125" customWidth="1"/>
   </cols>
@@ -489,10 +498,34 @@
       <c r="A11" t="s">
         <v>2</v>
       </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/FileGunBasin/9 August-04 StormBasin/210 sddx - pantheon table tenants - 1/210 sddx - pantheon table tenants - 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/210 sddx - pantheon table tenants - 1/210 sddx - pantheon table tenants - 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/210 sddx - pantheon table tenants - 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B448E5B-EC7F-914F-A52E-406F4BA5FEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EA1394-4515-3B44-864A-59BC41C635EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{800A12F4-B84A-EC41-88CA-9666E3C00132}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="7">
   <si>
     <t>description</t>
   </si>
@@ -453,7 +453,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -518,12 +518,23 @@
         <v>4</v>
       </c>
     </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>

--- a/FileGunBasin/9 August-04 StormBasin/210 sddx - pantheon table tenants - 1/210 sddx - pantheon table tenants - 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/210 sddx - pantheon table tenants - 1/210 sddx - pantheon table tenants - 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/210 sddx - pantheon table tenants - 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EA1394-4515-3B44-864A-59BC41C635EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA6FEB8-8BB8-BB4E-93F9-A26276C36103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{800A12F4-B84A-EC41-88CA-9666E3C00132}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="8">
   <si>
     <t>description</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>open /driggsman?PARAMETER</t>
+  </si>
+  <si>
+    <t>///</t>
   </si>
 </sst>
 </file>
@@ -449,11 +452,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70827F30-29D4-3049-AB31-D2A38108864F}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -464,8 +467,37 @@
     <col min="5" max="5" width="46.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -479,30 +511,51 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -510,7 +563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -518,25 +571,62 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/FileGunBasin/9 August-04 StormBasin/210 sddx - pantheon table tenants - 1/210 sddx - pantheon table tenants - 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/210 sddx - pantheon table tenants - 1/210 sddx - pantheon table tenants - 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/210 sddx - pantheon table tenants - 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA6FEB8-8BB8-BB4E-93F9-A26276C36103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6168CAE5-490F-2C40-AE2B-D08BE6E95A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{800A12F4-B84A-EC41-88CA-9666E3C00132}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="23">
   <si>
     <t>description</t>
   </si>
@@ -47,9 +47,6 @@
     <t>(checkbox)</t>
   </si>
   <si>
-    <t>id_code_of_</t>
-  </si>
-  <si>
     <t>open chen page</t>
   </si>
   <si>
@@ -60,6 +57,54 @@
   </si>
   <si>
     <t>///</t>
+  </si>
+  <si>
+    <t>open /nwjar1?PARAMETER</t>
+  </si>
+  <si>
+    <t>open /gcjar1?PARAMETER</t>
+  </si>
+  <si>
+    <t>SPECIAL NOTE TO CLAUDE CODE: the intention of this file is the following:</t>
+  </si>
+  <si>
+    <t>I will create a table below. The first row where there are no cells containing anything other than a "///" marks the beginning of the table's &lt;thead&gt; area</t>
+  </si>
+  <si>
+    <t>The second row where there are no cells containing anything other than a "///" marks the end of the table's &lt;/thead&gt; area and the beginning of the table's &lt;tbody&gt; area</t>
+  </si>
+  <si>
+    <t>The third row where there are no cells containing anything other than a "///" marks the end of the table's &lt;/tbody&gt; area and the end of the table's area overall (&lt;/table&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">your job, as claude code, is to, when manually commanded by me in chat, review this interface table model that I will edit here in the spreadsheet overtime, and you should be able to understand what I'm trying to represent to you regarding a desired table </t>
+  </si>
+  <si>
+    <t>this desired interface table is currently going to be located at 2 places:</t>
+  </si>
+  <si>
+    <t>in the stellar chamber, under the pantheon tab</t>
+  </si>
+  <si>
+    <t>LOCATION 1 FOR THIS UI TABLE GRID</t>
+  </si>
+  <si>
+    <t>LOCATION 2 FOR THIS UI TABLE GRID</t>
+  </si>
+  <si>
+    <t>on a page at ?page=rup_pantheon_mar (if this page doesn't already exist please create it)</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>id_code_of_turtle</t>
+  </si>
+  <si>
+    <t>Please note: this ui table may contain multiple header rows (&lt;tr&gt; rows inside its &lt;thead&gt; area), that's why I wanted to define my markup definition distinctly to you here.</t>
+  </si>
+  <si>
+    <t>related_entitites</t>
   </si>
 </sst>
 </file>
@@ -82,7 +127,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,6 +146,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -114,10 +165,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,11 +504,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70827F30-29D4-3049-AB31-D2A38108864F}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -467,166 +519,223 @@
     <col min="5" max="5" width="46.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
         <v>7</v>
       </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" t="s">
-        <v>7</v>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/FileGunBasin/9 August-04 StormBasin/210 sddx - pantheon table tenants - 1/210 sddx - pantheon table tenants - 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/210 sddx - pantheon table tenants - 1/210 sddx - pantheon table tenants - 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/210 sddx - pantheon table tenants - 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6168CAE5-490F-2C40-AE2B-D08BE6E95A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5D9EC4-1711-864D-9298-06FF80228D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{800A12F4-B84A-EC41-88CA-9666E3C00132}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="31">
   <si>
     <t>description</t>
   </si>
@@ -105,6 +105,30 @@
   </si>
   <si>
     <t>related_entitites</t>
+  </si>
+  <si>
+    <t>origin_page</t>
+  </si>
+  <si>
+    <t>https://(insert_domain)/wp-admin/post.php?post=(insert_postid)&amp;action=edit</t>
+  </si>
+  <si>
+    <t>==========================================================</t>
+  </si>
+  <si>
+    <t>NEW SPECIAL NOTES FOR CLAUDE CODE ON STYLING, etc.:</t>
+  </si>
+  <si>
+    <t>———————————————————————</t>
+  </si>
+  <si>
+    <t>pleae modify the styling to mimick what we have on the page at /xpagesmanager1 page in our app</t>
+  </si>
+  <si>
+    <t>NEW SPECIAL NOTES FOR CLAUDE CODE</t>
+  </si>
+  <si>
+    <t>please make sure that the main &lt;th&gt; column header labels for each column in the ui table are always in all lowercase and bold</t>
   </si>
 </sst>
 </file>
@@ -165,11 +189,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,17 +530,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70827F30-29D4-3049-AB31-D2A38108864F}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.83203125" customWidth="1"/>
-    <col min="2" max="2" width="29.1640625" customWidth="1"/>
+    <col min="2" max="2" width="65.1640625" customWidth="1"/>
     <col min="4" max="4" width="29.83203125" customWidth="1"/>
     <col min="5" max="5" width="46.83203125" customWidth="1"/>
   </cols>
@@ -555,186 +581,250 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H26" t="s">
-        <v>6</v>
-      </c>
-      <c r="I26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D39" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E39" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F39" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G28" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" t="s">
-        <v>6</v>
-      </c>
-      <c r="I28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" t="s">
+        <v>6</v>
+      </c>
+      <c r="I40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>2</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>2</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>2</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>2</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>2</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>2</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>2</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" t="s">
-        <v>6</v>
-      </c>
-      <c r="F36" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36" t="s">
-        <v>6</v>
-      </c>
-      <c r="H36" t="s">
-        <v>6</v>
-      </c>
-      <c r="I36" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" t="s">
+        <v>6</v>
+      </c>
+      <c r="I48" t="s">
         <v>6</v>
       </c>
     </row>

--- a/FileGunBasin/9 August-04 StormBasin/210 sddx - pantheon table tenants - 1/210 sddx - pantheon table tenants - 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/210 sddx - pantheon table tenants - 1/210 sddx - pantheon table tenants - 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/210 sddx - pantheon table tenants - 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5D9EC4-1711-864D-9298-06FF80228D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA1A1A6-4D04-9749-BC41-FDCEDA071D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{800A12F4-B84A-EC41-88CA-9666E3C00132}"/>
   </bookViews>
@@ -533,8 +533,8 @@
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
